--- a/data/math/math-105.xlsx
+++ b/data/math/math-105.xlsx
@@ -464,10 +464,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super();
+</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>0.12500</t>
@@ -488,10 +493,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    private double sumX = 0d;
+</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>0.12500</t>
@@ -512,10 +522,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    private double sumXX = 0d;
+</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>0.12500</t>
@@ -536,10 +551,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    private double sumY = 0d;
+</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>0.12500</t>
@@ -560,10 +580,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    private double sumYY = 0d;
+</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>0.12500</t>
@@ -584,10 +609,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    private double sumXY = 0d;
+</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>0.12500</t>
@@ -608,10 +638,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    private long n = 0;
+</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>0.12500</t>
@@ -632,10 +667,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    private double xbar = 0;
+</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>0.12500</t>
@@ -656,10 +696,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    private double ybar = 0;
+</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>0.12500</t>
@@ -680,10 +725,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>0.12500</t>
@@ -704,10 +754,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n == 0) {
+</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>0.12500</t>
@@ -728,10 +783,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            xbar = x;
+</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>0.12500</t>
@@ -752,10 +812,15 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ybar = y;
+</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>0.12500</t>
@@ -776,10 +841,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double dx = x - xbar;
+</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>0.12500</t>
@@ -800,10 +870,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double dy = y - ybar;
+</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>0.12500</t>
@@ -824,10 +899,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            sumXX += dx * dx * (double) n / (double) (n + 1.0);
+</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>0.12500</t>
@@ -848,10 +928,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            sumYY += dy * dy * (double) n / (double) (n + 1.0);
+</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>0.12500</t>
@@ -872,10 +957,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            sumXY += dx * dy * (double) n / (double) (n + 1.0);
+</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>0.12500</t>
@@ -896,10 +986,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            xbar += dx / (double) (n + 1.0);
+</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>0.12500</t>
@@ -920,10 +1015,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ybar += dy / (double) (n + 1.0);
+</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>0.12500</t>
@@ -944,10 +1044,15 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        sumX += x;
+</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>0.12500</t>
@@ -968,10 +1073,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        sumY += y;
+</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>0.12500</t>
@@ -992,10 +1102,15 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        n++;
+</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>0.12500</t>
@@ -1016,10 +1131,15 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>0.12500</t>
@@ -1040,17 +1160,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return sumYY - sumXY * sumXY / sumXX;
+</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>0.12500</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1064,10 +1189,15 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        for (int i = 0; i &lt; data.length; i++) {
+</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1088,10 +1218,15 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            addData(data[i][0], data[i][1]);
+</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1112,10 +1247,15 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1136,10 +1276,15 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        sumX = 0d;
+</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1160,10 +1305,15 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        sumXX = 0d;
+</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1184,10 +1334,15 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        sumY = 0d;
+</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1208,10 +1363,15 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        sumYY = 0d;
+</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1232,10 +1392,15 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        sumXY = 0d;
+</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1256,10 +1421,15 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        n = 0;
+</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1280,10 +1450,15 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1304,10 +1479,15 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return n;
+</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1328,10 +1508,15 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double b1 = getSlope();
+</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1352,10 +1537,15 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return getIntercept(b1) + b1 * x;
+</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1376,10 +1566,15 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return getIntercept(getSlope());
+</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1400,10 +1595,15 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &lt; 2) {
+</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1424,10 +1624,15 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Double.NaN; //not enough data 
+</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1448,10 +1653,15 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (Math.abs(sumXX) &lt; 10 * Double.MIN_VALUE) {
+</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1472,10 +1682,15 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Double.NaN; //not enough variation in x
+</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1496,10 +1711,15 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return sumXY / sumXX;
+</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1520,10 +1740,15 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &lt; 2) {
+</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1544,10 +1769,15 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Double.NaN;
+</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1568,10 +1798,15 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return sumYY;
+</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1592,10 +1827,15 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return getRegressionSumSquares(getSlope());
+</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1616,10 +1856,15 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &lt; 3) {
+</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1640,10 +1885,15 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Double.NaN;
+</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1664,10 +1914,15 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return getSumSquaredErrors() / (double) (n - 2);
+</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1688,10 +1943,15 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double b1 = getSlope();
+</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1712,10 +1972,15 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double result = Math.sqrt(getRSquare());
+</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1736,10 +2001,15 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (b1 &lt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1760,10 +2030,15 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            result = -result;
+</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1784,10 +2059,15 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return result;
+</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1808,10 +2088,15 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double ssto = getTotalSumSquares();
+</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1832,10 +2117,15 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (ssto - getSumSquaredErrors()) / ssto;
+</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1856,10 +2146,15 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return Math.sqrt(
+</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1880,10 +2175,15 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return Math.sqrt(getMeanSquareError() / sumXX);
+</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1904,10 +2204,15 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return getSlopeConfidenceInterval(0.05d);
+</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1928,10 +2233,15 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (alpha &gt;= 1 || alpha &lt;= 0) {
+</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1952,10 +2262,15 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new IllegalArgumentException();
+</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1976,10 +2291,15 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return getSlopeStdErr() *
+</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2000,10 +2320,15 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return 2d* (1.0 - getTDistribution().cumulativeProbability(
+</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2024,10 +2349,15 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (sumY - slope * sumX) / ((double) n);
+</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2048,10 +2378,15 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return slope * slope * sumXX;
+</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2072,10 +2407,15 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return DistributionFactory.newInstance().createTDistribution(n - 2);
+</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>0.00000</t>
